--- a/PDF/data/experiencia_laboral_docente.xlsx
+++ b/PDF/data/experiencia_laboral_docente.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD62C5-9F24-44E1-8186-A54E3FD033B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B27DA-5BE4-4370-8349-759D447DA3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,15 +54,6 @@
     <t>Universidad Central</t>
   </si>
   <si>
-    <t>2017 - Actualmente</t>
-  </si>
-  <si>
-    <t>Gestión de la comunicación (4 horas semanales - 2018 - Actualmente)</t>
-  </si>
-  <si>
-    <t>Prácticas profesionales (4 horas semanales - 2022 - Actualmente)</t>
-  </si>
-  <si>
     <t>Opción de grado Comunicación y DDHH - módulo Comunicación y Género (4 horas semanales - 2019 - 2021)</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>Cedavida</t>
   </si>
   <si>
-    <t>Curso MinTIC por tu mujer</t>
-  </si>
-  <si>
     <t>Coordinadora de Comunicaciones</t>
   </si>
   <si>
@@ -205,6 +193,18 @@
   </si>
   <si>
     <t>Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales</t>
+  </si>
+  <si>
+    <t>Curso MinTIC Por Ti Mujer</t>
+  </si>
+  <si>
+    <t>2017 - 2023</t>
+  </si>
+  <si>
+    <t>Gestión de la comunicación (4 horas semanales - 2018 - 2023)</t>
+  </si>
+  <si>
+    <t>Prácticas profesionales (4 horas semanales - 2022 - 2023)</t>
   </si>
 </sst>
 </file>
@@ -698,48 +698,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,19 +1020,19 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,34 +1049,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1085,202 +1085,202 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="C12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/PDF/data/experiencia_laboral_docente.xlsx
+++ b/PDF/data/experiencia_laboral_docente.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B27DA-5BE4-4370-8349-759D447DA3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70540CDA-4C30-45BD-887D-6BB7A8A4AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>what</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Cedavida</t>
   </si>
   <si>
-    <t>Coordinadora de Comunicaciones</t>
-  </si>
-  <si>
     <t>Jun 2016 - Dic 2016</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Proyecto “Yo Cuido mi Futuro por Dos” en prevención de embarazo subsiguiente en la adolescencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Creadora de la propuesta </t>
-  </si>
-  <si>
     <t>Proyecto realizado por el ICBF y Egesco</t>
   </si>
   <si>
@@ -120,15 +114,9 @@
     <t>Realización de la “Sala por la Memoria y la Dignidad de las Víctimas de la Fuerza Pública Colombiana”</t>
   </si>
   <si>
-    <t>Consultora Experta</t>
-  </si>
-  <si>
     <t>Jun 2014 - Dic 2014</t>
   </si>
   <si>
-    <t>Proyecto a favor de los Derechos Sexuales y Reproductivos, prevención de las violencias basadas en género e igualdad de género con especial énfasis en prevención de embarazo adolescente para el DPS</t>
-  </si>
-  <si>
     <t>Directora de Comunicaciones</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Checchi and Company Consulting Colombia</t>
   </si>
   <si>
-    <t>Proyecto de Acceso a la Justicia</t>
-  </si>
-  <si>
     <t>Comunicadora</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t>Pasto, Colombia</t>
   </si>
   <si>
-    <t>Programa Conjunto Ventana de Paz</t>
-  </si>
-  <si>
     <t>Asesora en Comunicaciones</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>Oficina de Derechos Humanos de la Vicepresidencia de la República de Colombia</t>
   </si>
   <si>
-    <t>Oficina de Lucha Contra la Impunidad</t>
-  </si>
-  <si>
     <t>Docente Investigadora - Programa de Comunicación Social y periodismo</t>
   </si>
   <si>
@@ -192,12 +171,6 @@
     <t xml:space="preserve">Brújula Comunicaciones </t>
   </si>
   <si>
-    <t>Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales</t>
-  </si>
-  <si>
-    <t>Curso MinTIC Por Ti Mujer</t>
-  </si>
-  <si>
     <t>2017 - 2023</t>
   </si>
   <si>
@@ -205,6 +178,42 @@
   </si>
   <si>
     <t>Prácticas profesionales (4 horas semanales - 2022 - 2023)</t>
+  </si>
+  <si>
+    <t>Creadora de la propuesta - enfoque de derechos, género, diversidades y étnico. Capacitadora</t>
+  </si>
+  <si>
+    <t>Curso MinTIC Por Ti Mujer. Creación de contenidos y seguimiento a capacitaciones</t>
+  </si>
+  <si>
+    <t>Proyecto a favor de los Derechos Sexuales y Reproductivos, prevención de las violencias basadas en género,  prevención de embarazo adolescente para el DPS</t>
+  </si>
+  <si>
+    <t>Proyecto de Acceso a la Justicia. Trabajo de comunicaciones con enfoque de DDHH y género. Trabajo comunitario</t>
+  </si>
+  <si>
+    <t>Programa Conjunto Ventana de Paz. Estrategias de cambio social con campesinos, indígenas y comunidad negra en Nariño</t>
+  </si>
+  <si>
+    <t>Oficina de Lucha Contra la Impunidad. Estrategias de comunicación y pedagógicas a favor de cambio social con enfoque de DDHH y género</t>
+  </si>
+  <si>
+    <t>Trabajo con adolescentes para prevención del reclutamiento infantil desde enfoques de ciclo de vida, DDHH, diversidades y género</t>
+  </si>
+  <si>
+    <t>Experta cambio social</t>
+  </si>
+  <si>
+    <t>Experta Cambio Social</t>
+  </si>
+  <si>
+    <t>Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales y cambio social. Enfoque de DDHH</t>
+  </si>
+  <si>
+    <t>Directora Comuniciones</t>
+  </si>
+  <si>
+    <t>Repolitización del Hecho Social (4 horas semanales - 2019 - 2021)</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,32 +1060,32 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1085,12 +1094,12 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,182 +1114,190 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
+      <c r="E16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/PDF/data/experiencia_laboral_docente.xlsx
+++ b/PDF/data/experiencia_laboral_docente.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">\textbf{Proyecto: } La necesidad de generar procesos de reparación social a las mujeres víctimas y sobrevivientes de violencias sexuales en el marco del conflicto armado desde el quehacer periodístico. Diversas propuestas de tratamiento según contextos</t>
   </si>
   <si>
+    <t xml:space="preserve">Fortalecimiento a la organización con capacitaciones a mujeres víctimas y sobrevivientes de violencias sexuales en: vocerías para potencializar sus liderazgos sociales, trabajo con Enfoque de DHH y Género, autocuidado en temas comunicativos: manejo de prensa, periodistas, redes sociales, violencias digitales e información digital.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Financiación del Ministerio de Ciencia Tecnología e Innovación - Minciencias</t>
   </si>
   <si>
@@ -91,25 +94,7 @@
     <t xml:space="preserve">Prácticas 1 (3 horas semanales - 2017 - 2018)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Pedagoga – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Curso MinTIC Por Ti Mujer. Creación de contenidos y seguimiento a capacitaciones</t>
-    </r>
+    <t xml:space="preserve">Pedagoga – Curso MinTIC Por Ti Mujer. Creación de contenidos y seguimiento a capacitaciones \newline \textit{Contenidos:}</t>
   </si>
   <si>
     <t xml:space="preserve">Sep 2020 - Dic 2020</t>
@@ -130,6 +115,12 @@
     <t xml:space="preserve">Emprendimientos femeninos</t>
   </si>
   <si>
+    <t xml:space="preserve">Contribución de las Tecnologías de la Información y las Comunicaciones (TIC) en la igualdad de género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutas de atención de violencias digitales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Experta Cambio Social</t>
   </si>
   <si>
@@ -232,25 +223,7 @@
     <t xml:space="preserve">Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales y cambio social. Enfoque de DDHH</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Trabajo d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">erechos sexuales y reproductivos – Fundación Oriéntame y Mesa por la Vida y la Salud de las Mujeres</t>
-    </r>
+    <t xml:space="preserve">Trabajo derechos sexuales y reproductivos – Fundación Oriéntame y Mesa por la Vida y la Salud de las Mujeres</t>
   </si>
   <si>
     <t xml:space="preserve">Fundación País Libre</t>
@@ -263,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,12 +258,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,12 +302,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,10 +496,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,23 +551,23 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
@@ -645,23 +608,23 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="0" t="s">
         <v>27</v>
       </c>
@@ -677,169 +640,184 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="E20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>65</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
